--- a/DallasDesignSprint/ScrapingOutput/locations/HarwoodPark/HarwoodPark.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/HarwoodPark/HarwoodPark.xlsx
@@ -476,8 +476,10 @@
           <t>Harwood Park is a big, beautiful park with a lot of stuff to do. Very clean, well maintained, and perfect for families and kids. There’s plenty of space to walk, relax, and let the kids play safely. Great spot for picnics, photos, or just enjoying fresh air. Definitely a nice place to visit and unwind! 🌳😊Comfort levelNeutral</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>5</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -485,32 +487,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lejah</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>5</v>
+          <t>Am W</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>I really</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>a week ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="4">
@@ -521,11 +529,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Harwood Park is a newer addition to the city’s green spaces, offering modern landscaping, open lawns, shaded paths, and community-friendly features. It’s clean, well-lit, and designed for both relaxation and light recreation. A great spot for walking, picnics, or enjoying a quiet break downtown</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
+          <t>Harwood Park is a newer addition to the city’s green spaces, offering modern landscaping, open lawns, shaded paths, and community-friendly features. It’s clean, well-lit, and designed for both relaxation and light recreation. A great spot for walking, picnics, or enjoying a quiet break downtown.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -533,471 +543,534 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Samuel Reed</t>
+          <t>1616bsm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The open space gave a sense of freedom. It was easy to spend hours there without feeling crowded</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
+          <t>Was a hot day so slides were burning, the platforms in the elephant play place had some gross stuff up in it but the playground was super cool and unique. The ground fountains were nice cuz of the heat but they shut off at 7:30ish. There were some homeless people around. Kept to themselves. A woman asked about the timing of the fountains being shut off; seemed like she wanted to “clean up” in there?
+The field area was open and felt nice while being in the middle of the city.
+There are 2 dog park areas. A little small but still nice to have.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>a month ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paul Pecena (captainapaullo)</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>5</v>
+          <t>Irene Eng</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>It looks</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 months ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Alondra Toro</t>
+          <t>Alex Canizare</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RestroomsAlways clean</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
+          <t>Great place to bring the family.  The kids had fun in the playground.   It had an open space to play soccer.  Nice sitting area. +13</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>George Alonzo</t>
+          <t>Darrell Herbert</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Basketball court, pickleball court and a playground for the kiddos</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
+          <t>Great time with exciting people. Met a great couple from Ft. Worth that read about the park and decided to come into the city after the Rangers parade. They were delighted to see so much green development and progress of the entire area especially Deep EllumPlaygroundThe giant elephant trunks are climbers that the kids enjoyed.. It's a cool and daring playground that invites play and thought. We spent ten minutes finding the sea shells!Dog-friendlinessTwo dog Parks and am open fieldPicnic areaPicnic style tables and open space perfect for a concert. With a pavilion that's well lit. +2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tiffany F. Foster</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>5</v>
+          <t>Chris Lemon</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Super nice park and kids’ playground structure. Visited on a chilly morning but in full sun quickly warmed up and kids had a blast!PlaygroundSuper nice playground structure, made of solid metal, not cheap plastic!Dog-friendlinessSuper dog friendly area, but no signs of dog mess or dog urine odor.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>11 months ago</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Amanda W</t>
+          <t>Page Garza</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I really</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
+          <t>Opening weekend for this brand new beautiful park in downtown Dallas across from First Presbyterian Church Dallas. It was hot today.🌞 The kids were enjoying the water feature.😀RestroomsFancy brand new bathrooms for the park.Dog-friendlinessTwo separate dog areas within the park. +11</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1616bsm</t>
+          <t>shervida otudor</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Was a hot day so slides were burning, the platforms in the elephant play place had some gross stuff up in it but the playground was super cool and unique. The ground fountains were nice cuz of the heat but they shut off at 7:30ish. There were some homeless people around. Kept to themselves. A woman asked about the timing of the fountains being shut off; seemed like she wanted to “clean up” in there
-The field area was open and felt nice while being in the middle of the city.
-There are 2 dog park areas. A little small but still nice to have</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
+          <t>To God be the glory this park is the first time that me and my son has been here and I have to say it is very different and I</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shakena King</t>
+          <t>Ashley Thompson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Always a relaxing and fun time here with my mom and kids!</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
+          <t>Really nice park, different things to do!</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F12" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Irene Eng</t>
+          <t>Nadiia Rolko</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>It looks</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
+          <t>Great park, lot’s of events and activities. Always bring friends to attend the events. Nice playground for kiddos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F13" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tana hensley</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>5</v>
+          <t>Samuel Reed</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>The open space gave a sense of freedom. It was easy to spend hours there without feeling crowded.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>a month ago</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F14" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Eva Neria</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>5</v>
+          <t>Dena Sims</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Beautiful park. I’d kind of still under construction. It’s a fun place and playground for the entire family. This park lights up at night and I feel safe walking about during the evening hours.
+There are trees and fountains. Quite a sight.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F15" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Selene Payan</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>5</v>
+          <t>George Alonzo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Basketball court, pickleball court and a playground for the kiddos.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7 months ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F16" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hollie Mac</t>
+          <t>Janel Yvette</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Very cool park to walk your dogs</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
+          <t>Cute little park. My kids and I enjoyed lunch and playing on the playground.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F17" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vickie Smith</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>5</v>
+          <t>Trey Clark</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Grand opening was nice. The play area for kids is suitable, including face painting. Plenty of vendor tents and food truck options were available. The live music complimented the atmosphere. The one area of opportunity would be more shaded areas for hot Texas days. Overall, I would certainly revisit.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F18" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Eric Love</t>
+          <t>Fil Lorinc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
+          <t>Great addition to the downtown parks initiative.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F19" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chris Lemon</t>
+          <t>David Dembeck</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Super nice park and kids’ playground structure. Visited on a chilly morning but in full sun quickly warmed up and kids had a blast!PlaygroundSuper nice playground structure, made of solid metal, not cheap plastic!Dog-friendlinessSuper dog friendly area, but no signs of dog mess or dog urine odor</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
+          <t>I play pickleball here in the evening with a group. Very nice, clean, well maintained. There are clean public bathrooms, everything is well lit after sunset, and security patrols.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11 months ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F20" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brenda Gonzales</t>
+          <t>JoLisa Johnson</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PlaygroundMy 3 year old loves this park. We use it as an alternative when we prefer a smaller crowd than Klyde Warren</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>5</v>
+          <t>Love this park! Many different features including basketball court, open field, fountains and of course an amazing playground that is accessible and fun for many ages!</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11 months ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F21" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shervida otudor</t>
+          <t>Shakena King</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>To God be the glory this park is the first time that me and my son has been here and I have to say it is very different and I</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>5</v>
+          <t>Always a relaxing and fun time here with my mom and kids!</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F22" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fil Lorinc</t>
+          <t>Sophia Rodriguez</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Great addition to the downtown parks initiative</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>5</v>
+          <t>This was such a fun park to go to. My son had a blast, as well as my puppy. I loved that the playground had a Christmas hat on one of the elephants!Dog-friendlinessI wished the door to the pet area reached the bottom. My 3month old weenie dog slipped right out from under it.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1005,77 +1078,83 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F23" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Moore Consetta</t>
+          <t>Jason Hui</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I go here often to get a piece mind it's so beatuiful</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>5</v>
+          <t>Looks nice. Mammoth playground. Basketball court. Nice green space. Stage for events. Big open grass area. I look forward to see what events will happen here.PlaygroundVery unique playground. They are mammoths.Dog-friendlinessSmall dog park</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F24" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>lourdes gomez</t>
+          <t>Jose Guevara</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>A peak neglected by weeds. Translated by Google ・ See original (Spanish)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
+          <t>park, with plenty of seating and walkways.  The park has a tennis and basketball court, users will have to decide what to play first as both</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F25" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>momo morris</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Very nice. A must visit</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>5</v>
+          <t>Graduation ceremony. Nice clean park.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1083,25 +1162,28 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F26" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Joe Cabrera</t>
+          <t>Enrique Pompa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Great downtown park</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>5</v>
+          <t>There are public restrooms.   The area is clean and there is a security guy walking around what makes it even better.
+Nice place to bring the kids</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1109,10 +1191,10 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F27" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="28">
@@ -1123,11 +1205,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Beautiful with large bathroom area, water fountain, benches, tennis court, and water fun</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>5</v>
+          <t>Beautiful with large bathroom area, water fountain, benches, tennis court, and water fun.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1135,77 +1219,83 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F28" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nadiia Rolko</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Great park, lot’s of events and activities. Always bring friends to attend the events. Nice playground for kiddos</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>5</v>
+          <t>Very nice park! Went to the grand opening and had a great time checking it out.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F29" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>momo morris</t>
+          <t>Charlot Mai</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Graduation ceremony. Nice clean park</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>5</v>
+          <t>Great NEW public park. They didn’t skimp on lights either for optimal lighting conditions at NIGHT!</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F30" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dena Sims</t>
+          <t>Marcy Arias</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Beautiful park. I’d kind of still under construction. It’s a fun place and playground for the entire family. This park lights up at night and I feel safe walking about during the evening hours. There are trees and fountains. Quite a sight</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>5</v>
+          <t>Two little dog parks, great playground, wonderful park, and bathrooms are always clean.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1213,99 +1303,111 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F31" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Daniela Calabria (Comunicación gráfica)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>5</v>
+          <t>Hollie Mac</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Very cool park to walk your dogs</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F32" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alex Canizare</t>
+          <t>J Hughes</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Great place to bring the family. The kids had fun in the playground. It had an open space to play soccer. Nice sitting area. +13</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>5</v>
+          <t>Great looking public space, top notch. Restrooms, Stage, Dog Park, Basket Ball/Pickle Ball.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F33" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>David Dembeck</t>
+          <t>reginafwddell</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>I play pickleball here in the evening with a group. Very nice, clean, well maintained. There are clean public bathrooms, everything is well lit after sunset, and security patrols</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>5</v>
+          <t>Really nice new park. Walking distance from the library.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F34" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Janel Yvette</t>
+          <t>Kevin O'Connell</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cute little park. My kids and I enjoyed lunch and playing on the playground</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
+          <t>WHERE ARE THE GREEN FOSSILS!!!!! Couldn’t find em anywhere. Otherwise what a  great little park.PlaygroundNice unique touch of a playground park.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1313,21 +1415,27 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F35" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nathan Adams</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>5</v>
+          <t>Carlos Chaves</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1335,25 +1443,27 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F36" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Carlos Chaves</t>
+          <t>Moore Consetta</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Good</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>5</v>
+          <t>I go here often to get a piece mind it's so beatuiful</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1361,25 +1471,27 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F37" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Marcy Arias</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Two little dog parks, great playground, wonderful park, and bathrooms are always clean</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>5</v>
+          <t>Very nice. A must visit.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1387,73 +1499,83 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F38" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Kevin O'Connell</t>
+          <t>Yessica Bautista</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WHERE ARE THE GREEN FOSSILS!!!!! Couldn’t find em anywhere. Otherwise what a great little park.PlaygroundNice unique touch of a playground park</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>5</v>
+          <t>Sept 24 th Dallas Farmers Market event! 🤭🎊 …</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>2 years ago</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F39" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Enrique Pompa</t>
+          <t>Alondra Toro</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>There are public restrooms. The area is clean and there is a security guy walking around what makes it even better. Nice place to bring the kids</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>5</v>
+          <t>RestroomsAlways clean</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>4 months ago</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F40" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Payge Stevens</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
-        <v>5</v>
+          <t>Joe Cabrera</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Great downtown park</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1461,47 +1583,55 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F41" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sophia Rodriguez</t>
+          <t>Brenda Gonzales</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>This was such a fun park to go to. My son had a blast, as well as my puppy. I loved that the playground had a Christmas hat on one of the elephants!Dog-friendlinessI wished the door to the pet area reached the bottom. My 3month old weenie dog slipped right out from under it</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>5</v>
+          <t>PlaygroundMy 3 year old loves this park. We use it as an alternative when we prefer a smaller crowd than Klyde Warren.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>11 months ago</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F42" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Shamim Faraji</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
-        <v>5</v>
+          <t>lourdes gomez</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A peak neglected by weeds. Translated by Google ・ See original (Spanish)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1509,369 +1639,363 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F43" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ashton Tassin</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
-        <v>5</v>
+          <t>Eric Love</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>+3</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>10 months ago</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F44" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gz Up</t>
+          <t>Lejah</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
-        <v>5</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>a year ago</t>
+          <t>a week ago</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F45" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>J Hughes</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Great looking public space, top notch. Restrooms, Stage, Dog Park, Basket Ball/Pickle Ball</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>5</v>
+          <t>Paul Pecena (captainapaullo)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>2 months ago</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F46" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Charlot Mai</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Great NEW public park. They didn’t skimp on lights either for optimal lighting conditions at NIGHT!</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>5</v>
+          <t>Tiffany F. Foster</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>5 months ago</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F47" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Victor Martinez</t>
+          <t>tana hensley</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
-        <v>5</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F48" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Darrell Herbert</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Great time with exciting people. Met a great couple from Ft. Worth that read about the park and decided to come into the city after the Rangers parade. They were delighted to see so much green development and progress of the entire area especially Deep EllumPlaygroundThe giant elephant trunks are climbers that the kids enjoyed.. It's a cool and daring playground that invites play and thought. We spent ten minutes finding the sea shells!Dog-friendlinessTwo dog Parks and am open fieldPicnic areaPicnic style tables and open space perfect for a concert. With a pavilion that's well lit. +2</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>5</v>
+          <t>Eva Neria</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>6 months ago</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F49" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Santos Cortez</t>
+          <t>Selene Payan</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
-        <v>4</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F50" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Reginald Wright</t>
+          <t>Vickie Smith</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
-        <v>3</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F51" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>reginafwddell</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Really nice new park. Walking distance from the library</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>5</v>
+          <t>Daniela Calabria (Comunicación gráfica)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F52" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ashley Thompson</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Really nice park, different things to do!</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>5</v>
+          <t>Nathan Adams</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F53" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>JoLisa Johnson</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Love this park! Many different features including basketball court, open field, fountains and of course an amazing playground that is accessible and fun for many ages!</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>5</v>
+          <t>Payge Stevens</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F54" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jose Guevara</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>park, with plenty of seating and walkways. The park has a tennis and basketball court, users will have to decide what to play first as both</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>5</v>
+          <t>Shamim Faraji</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F55" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Very nice park! Went to the grand opening and had a great time checking it out</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>5</v>
+          <t>Ashton Tassin</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F56" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Trey Clark</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Grand opening was nice. The play area for kids is suitable, including face painting. Plenty of vendor tents and food truck options were available. The live music complimented the atmosphere. The one area of opportunity would be more shaded areas for hot Texas days. Overall, I would certainly revisit</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>5</v>
+          <t>Gz Up</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2 years ago</t>
+          <t>a year ago</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F57" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Page Garza</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Opening weekend for this brand new beautiful park in downtown Dallas across from First Presbyterian Church Dallas. It was hot today.🌞 The kids were enjoying the water feature.😀RestroomsFancy brand new bathrooms for the park.Dog-friendlinessTwo separate dog areas within the park. +11</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>5</v>
+          <t>Victor Martinez</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1879,25 +2003,23 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F58" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Yessica Bautista</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Sept 24 th Dallas Farmers Market event! 🤭🎊 …</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>5</v>
+          <t>Santos Cortez</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1905,25 +2027,23 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F59" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Jason Hui</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Looks nice. Mammoth playground. Basketball court. Nice green space. Stage for events. Big open grass area. I look forward to see what events will happen here.PlaygroundVery unique playground. They are mammoths.Dog-friendlinessSmall dog park</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>5</v>
+          <t>Reginald Wright</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1931,10 +2051,10 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32.7795927</v>
+        <v>32.7799323</v>
       </c>
       <c r="F60" t="n">
-        <v>-96.79339179999999</v>
+        <v>-96.7922153</v>
       </c>
     </row>
   </sheetData>
